--- a/data4regresssion/final_df.xlsx
+++ b/data4regresssion/final_df.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Н1 CAR</t>
+          <t>Н1_CAR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Н2 liquidity</t>
+          <t>Н2_liquidity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Н3 liquidity</t>
+          <t>Н3_liquidity</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -471,22 +471,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>NPL Ratio</t>
+          <t>NPL_Ratio</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Debt/TotalAssets</t>
+          <t>Debt_TotalAssets</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Deposits/TotalAssets</t>
+          <t>Deposits_TotalAssets</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>TotalLoans/TotalAssets</t>
+          <t>TotalLoans_TotalAssets</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Z-score</t>
+          <t>Z_score</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>КредитыЮЛ/TotalAssets</t>
+          <t>LoansLE_TotalAssets</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>КредитыФЛ/TotalAssets</t>
+          <t>LoansIn_TotalAssets</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>ВыданныеМБК/TotalAssets</t>
+          <t>IssuedMbcs_TotalAssets</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>ПривлеченныеМБК/TotalAssets</t>
+          <t>AttractedMbcs_TotalAssets</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Капитал/Активы</t>
+          <t>Capital_assets</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -581,82 +581,82 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>А_акции_доля</t>
+          <t>A_Shares</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>А_векселя_доля</t>
+          <t>A_Promissory_notes</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>А_облигации_доля</t>
+          <t>A_bonds</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>А_капиталы_доля</t>
+          <t>A_capitals</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>А_корп_кредиты_доля</t>
+          <t>A_corporate_loans</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>А_физлица_доля</t>
+          <t>A_indovoduals_loans</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>А_ЛОРО_доля</t>
+          <t>A_loro_loans</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>А_осн_средства_доля</t>
+          <t>A_fixed_assets</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>А_мбк_доля</t>
+          <t>A_Mbcs</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>А_прочие_доля</t>
+          <t>A_rest</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>П_вклады_физлиц_доля</t>
+          <t>P_deposits_individuals</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>П_корп_средства_доля</t>
+          <t>P_corporate_funds</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>П_счета_физлиц_доля</t>
+          <t>P_accounts_individuals</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>П_облигации_векселя_доля</t>
+          <t>P_bonds_promissory_notes</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>П_капитал_доля</t>
+          <t>P_capitals</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>П_мбк_доля</t>
+          <t>P_Mbcs</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">

--- a/data4regresssion/final_df.xlsx
+++ b/data4regresssion/final_df.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>stratagy</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>A_indovoduals_loans</t>
+          <t>A_individuals_loans</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
         <v>0.2727486129718826</v>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0.0007778679582869964</v>
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0.06804582190416802</v>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
         <v>0.1232638392314495</v>
@@ -4946,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
         <v>0.4512595369524732</v>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>0.1602858348300085</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
         <v>2</v>
@@ -5961,7 +5961,7 @@
         <v>4</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
         <v>0.09446428226565626</v>
@@ -6396,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="n">
         <v>0.2072981407653986</v>
@@ -6686,7 +6686,7 @@
         <v>4</v>
       </c>
       <c r="Y43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z43" t="n">
         <v>0.1723759855018828</v>
@@ -7991,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" t="n">
         <v>0.1479491941568115</v>
@@ -8136,7 +8136,7 @@
         <v>4</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" t="n">
         <v>0.4303035976149175</v>
@@ -8281,7 +8281,7 @@
         <v>4</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54" t="n">
         <v>0.0008659231961310936</v>
@@ -9151,7 +9151,7 @@
         <v>4</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" t="n">
         <v>0.1019308471466646</v>
@@ -9876,7 +9876,7 @@
         <v>4</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65" t="n">
         <v>0.02880872854307591</v>
@@ -10166,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67" t="n">
         <v>0.2577705548449842</v>
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y69" t="n">
         <v>3</v>
@@ -11906,7 +11906,7 @@
         <v>4</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z79" t="n">
         <v>0.003440834142696432</v>
@@ -12486,7 +12486,7 @@
         <v>4</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83" t="n">
         <v>0.0935722184696816</v>
@@ -12631,7 +12631,7 @@
         <v>4</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z84" t="n">
         <v>0.1664602683758712</v>
@@ -13936,7 +13936,7 @@
         <v>4</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z93" t="n">
         <v>0.03710415985770191</v>
@@ -14661,7 +14661,7 @@
         <v>4</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z98" t="n">
         <v>0.1746862472511926</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="Y99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z99" t="n">
         <v>0.9171279943977039</v>
@@ -15676,7 +15676,7 @@
         <v>4</v>
       </c>
       <c r="Y105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z105" t="n">
         <v>0.2093650841239892</v>
@@ -16111,7 +16111,7 @@
         <v>4</v>
       </c>
       <c r="Y108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z108" t="n">
         <v>0.6219778970755448</v>
@@ -19446,7 +19446,7 @@
         <v>4</v>
       </c>
       <c r="Y131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z131" t="n">
         <v>0.158196596337798</v>
@@ -19657,7 +19657,7 @@
         <v>0.180022709037783</v>
       </c>
       <c r="AU132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -19881,7 +19881,7 @@
         <v>4</v>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z134" t="n">
         <v>0.0006688256723845481</v>
@@ -20896,7 +20896,7 @@
         <v>4</v>
       </c>
       <c r="Y141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z141" t="n">
         <v>0.03485956958557916</v>
@@ -21687,7 +21687,7 @@
         <v>0.06532934964259696</v>
       </c>
       <c r="AU146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -21766,7 +21766,7 @@
         <v>4</v>
       </c>
       <c r="Y147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z147" t="n">
         <v>0.2911136851352935</v>
